--- a/Data.xlsx
+++ b/Data.xlsx
@@ -11,50 +11,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>shivam1990@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1991@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1992@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1993@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1994@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1995@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1996@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1997@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1998@yopmail.com</t>
-  </si>
-  <si>
-    <t>shivam1999@yopmail.com</t>
+    <t>jaigaur2609@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -73,14 +42,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -304,51 +270,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -11,22 +11,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>jaigaur2609@gmail.com</t>
   </si>
+  <si>
+    <t>saxena.piyush.011@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -42,11 +49,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -270,6 +280,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -11,12 +11,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>jaigaur2609@gmail.com</t>
-  </si>
-  <si>
-    <t>saxena.piyush.011@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>ishaangaba97@gmail.com</t>
+  </si>
+  <si>
+    <t>prajaktanandawade@gmail.com</t>
+  </si>
+  <si>
+    <t>shrutimayank1@gmail.com</t>
+  </si>
+  <si>
+    <t>shaimahaque02@yahoo.com</t>
+  </si>
+  <si>
+    <t>aafreen1804@gmail.com</t>
+  </si>
+  <si>
+    <t>rajneeshsharma540@gmail.com</t>
+  </si>
+  <si>
+    <t>a.p.vinuri@gmail.com</t>
+  </si>
+  <si>
+    <t>mahima020btit18@igdtuw.ac.in</t>
+  </si>
+  <si>
+    <t>muddasan@iitg.ac.in</t>
+  </si>
+  <si>
+    <t>thatswrite5@gmail.com</t>
+  </si>
+  <si>
+    <t>divyashreeaditi@gmail.com</t>
+  </si>
+  <si>
+    <t>shuklayash1256@gmail.com</t>
+  </si>
+  <si>
+    <t>aashna.chourasia.2@gmail.com</t>
+  </si>
+  <si>
+    <t>shivamtripathi214@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -29,7 +65,9 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -49,15 +87,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -281,9 +322,201 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="3"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="3"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
